--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2889323.42887271</v>
+        <v>2964853.098537516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960035.730364891</v>
+        <v>8960035.730364893</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>73.69471059424335</v>
       </c>
       <c r="T2" t="n">
-        <v>69.0708624534348</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>49.585951179738</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.2000469461213</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>146.4340874029168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>231.1936423255245</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.28704139029297</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.5309659613366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>125.5053447419229</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>113.3598406884824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>57.5581843283161</v>
       </c>
       <c r="C10" t="n">
-        <v>45.70312489655984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>154.2952773523778</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>106.8698659703784</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>94.30542059989239</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>185.8423719597734</v>
+        <v>66.54061335012004</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>159.8265587000973</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.87916681139897</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.74370058857906</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>112.6527826809839</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>135.5947476878508</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>154.2838120106863</v>
       </c>
     </row>
     <row r="32">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>184.3016056082895</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>78.6429335196182</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>52.69525993589492</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>240.6904616020335</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.4441331226389</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2567.681299938369</v>
       </c>
       <c r="T2" t="n">
-        <v>2572.351853615953</v>
+        <v>2349.046632910432</v>
       </c>
       <c r="U2" t="n">
-        <v>2572.351853615953</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="V2" t="n">
-        <v>2572.351853615953</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="W2" t="n">
-        <v>2572.351853615953</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>648.6252456865836</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>648.6252456865836</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>648.6252456865836</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>648.6252456865836</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V4" t="n">
-        <v>648.6252456865836</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2080756496231</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2080756496231</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2080756496231</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.7159459272334</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>418.7159459272334</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.7159459272334</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>1705.823007113086</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1336.860490172674</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1336.860490172674</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>2351.43802427856</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>2351.43802427856</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883535</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
         <v>99.5995062532301</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883535</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883535</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883535</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883535</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,22 +5059,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.277039839956</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>864.5925516340694</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W13" t="n">
-        <v>864.5925516340694</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X13" t="n">
-        <v>636.6030007360521</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5364,16 +5366,16 @@
         <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>825.112461128548</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5494,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805471</v>
@@ -5513,28 +5515,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,19 +5594,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.148054050878</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>822.148054050878</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.27669283732</v>
+        <v>1120.708416277583</v>
       </c>
       <c r="U19" t="n">
-        <v>822.148054050878</v>
+        <v>831.5797774911413</v>
       </c>
       <c r="V19" t="n">
-        <v>822.148054050878</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="W19" t="n">
-        <v>822.148054050878</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X19" t="n">
-        <v>822.148054050878</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.148054050878</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>4298.92133115522</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>4070.931780257203</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>4070.931780257203</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5986,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3633.388343841292</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3963.250971505325</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1453.720613397722</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1453.720613397722</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1229.935198187227</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336712</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1050.956765431391</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>3776.004670426975</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4474.771324941674</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>3957.653135257215</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>3957.653135257215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6934,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>3800.243931292536</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3720.806624707063</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>3981.892396122776</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7150,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1044.311772267568</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C40" t="n">
-        <v>875.3755893396608</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7363,19 +7365,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>1055.874582087562</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>1055.874582087562</v>
       </c>
       <c r="W40" t="n">
-        <v>1044.311772267568</v>
+        <v>766.4574120506015</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.311772267568</v>
+        <v>766.4574120506015</v>
       </c>
       <c r="Y40" t="n">
-        <v>1044.311772267568</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,22 +7435,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698579</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,61 +7636,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>308.1251096272033</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>62.91120742583729</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>113.6026921294538</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>28.12263706263002</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9420750461996</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.2677773534496</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>85.52655958204491</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.70518909861582</v>
+        <v>155.0069477082692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.09425128350591</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>192.3581855871784</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>65.22065181521373</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.26883114644335</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>67.17919750095338</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.95281337053848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>64.3008413414085</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>37.24595545009976</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>88.60388757900964</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>95.92021308231745</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>45.54689079654383</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>52.80268797598892</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.1552327346232403</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="M2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="N2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26439,7 +26441,7 @@
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26451,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730519</v>
+        <v>-181626.4091730514</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414926</v>
+        <v>408341.4700414927</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414925</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214952</v>
+        <v>-13675.47443214903</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447466</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447468</v>
       </c>
       <c r="H6" t="n">
         <v>511484.5620447469</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447466</v>
+        <v>511484.5620447469</v>
       </c>
       <c r="J6" t="n">
         <v>335061.3428521539</v>
@@ -26549,19 +26551,19 @@
         <v>511484.5620447469</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447468</v>
+        <v>511484.5620447469</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109093</v>
+        <v>376683.5468109095</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447466</v>
+        <v>511484.5620447469</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447471</v>
+        <v>511484.5620447469</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447471</v>
+        <v>511484.5620447472</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>100.7210022147282</v>
       </c>
       <c r="T2" t="n">
-        <v>147.377457904223</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.07924080041983</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>165.0818272958564</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>218.8388043680907</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>155.0442963305291</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>264.235956946298</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.05368739075823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>256.4250253303389</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>256.3712599899867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>122.2737958536212</v>
       </c>
       <c r="C10" t="n">
-        <v>121.543696202068</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36130,7 +36132,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776696</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>373.3355844763036</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>446.7972655274668</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>310.4863393037382</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964853.098537516</v>
+        <v>2957836.083645805</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960035.730364893</v>
+        <v>8960035.730364891</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>325.0337890609953</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>73.69471059424335</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28.44734925172066</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.2000469461213</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.09480221987788354</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.1936423255245</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.28704139029297</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.5053447419229</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>18.86539437537487</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.5581843283161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>106.8698659703784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.30542059989239</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>216.4586446023289</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>66.54061335012004</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>159.8265587000973</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.74370058857906</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.270117524064488</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.6527826809839</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.2838120106863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>184.3016056082895</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>78.6429335196182</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>240.6904616020335</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>161.4046520073179</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.4441331226389</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.2787299119459</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2567.681299938369</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2349.046632910432</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2095.284847548523</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2095.284847548523</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2095.284847548523</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.053331200164</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.875843514334</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.875843514334</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1936.051170808855</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1583.282515538741</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>1209.816757277661</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>819.6774253018493</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>450.9323329800494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.823007113086</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.860490172674</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.860490172674</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.422847177208</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.2840617486069</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5068,13 +5068,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.181495781369</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>877.7643257444088</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.112461128548</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>656.1762782006411</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1280.271174999994</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.3704617344999</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5521,13 +5521,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>261.8048459311029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1120.708416277583</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>831.5797774911413</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>576.8952892852544</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>576.8952892852544</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4588.338501192181</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4588.338501192181</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4588.338501192181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4588.338501192181</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4298.92133115522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4070.931780257203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4070.931780257203</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3633.388343841292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3963.250971505325</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.8170085027681</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027681</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
         <v>415.8104215925219</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1453.720613397722</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1453.720613397722</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1229.935198187227</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>940.8065594007854</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>940.8065594007854</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W25" t="n">
-        <v>940.8065594007854</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X25" t="n">
-        <v>712.8170085027681</v>
+        <v>736.1461909267691</v>
       </c>
       <c r="Y25" t="n">
-        <v>712.8170085027681</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.9958217162124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>959.9316061372629</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6715,16 +6715,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3776.004670426975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4474.771324941674</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4185.642686155232</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4185.642686155232</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4185.642686155232</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3957.653135257215</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3957.653135257215</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3800.243931292536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3720.806624707063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4271.309566159736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3981.892396122776</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3981.892396122776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3981.892396122776</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>498.9056400965593</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1055.874582087562</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>1055.874582087562</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>766.4574120506015</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>766.4574120506015</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>545.6648329070714</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,13 +7672,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>158.8724419039333</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>96.03744927814699</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>124.3400780863227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>62.91120742583729</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>113.6026921294538</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>28.12263706263002</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>145.2677773534496</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.52655958204491</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>5.088916456060332</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.0069477082692</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>38.09425128350591</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.22065181521373</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>217.3145358280303</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.17919750095338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.3008413414085</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>37.24595545009976</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>88.60388757900964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.54689079654383</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.80268797598892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1552327346232403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803341</v>
@@ -26334,13 +26334,13 @@
         <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803346</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
@@ -26349,13 +26349,13 @@
         <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,22 +26435,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.6075868707</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730514</v>
+        <v>-181626.409173052</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414926</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414925</v>
+        <v>408341.4700414928</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214903</v>
+        <v>-14650.0656918709</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447466</v>
+        <v>510509.970785025</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850249</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850253</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521539</v>
+        <v>334086.7515924321</v>
       </c>
       <c r="K6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850256</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109095</v>
+        <v>375708.955551188</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.970785025</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850255</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447472</v>
+        <v>510509.9707850253</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.8422566807161</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>100.7210022147282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>138.7994718469072</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>165.0818272958564</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.38360035493383</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.0442963305291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>264.235956946298</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>256.4250253303389</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>388.0106513663366</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.2737958536212</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>406.4618263286133</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>166.2502570412294</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3355844763036</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>446.7972655274668</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349766</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>310.4863393037382</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2957836.083645805</v>
+        <v>2962775.346494836</v>
       </c>
     </row>
     <row r="7">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>325.0337890609953</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>331.9419133400789</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.44734925172066</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09480221987788354</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>120.0321124540377</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>18.86539437537487</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.98934863366274</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>216.4586446023289</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527404</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.270117524064488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>161.4046520073179</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750042</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>88.56658743892525</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4318,7 +4318,7 @@
         <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>542.7038197849505</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
         <v>517.7458231623355</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,7 +4591,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.053331200164</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
         <v>2520.875843514334</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>240.388315801204</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4801,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.271174999994</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>991.1425362135525</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>736.4580480076656</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>447.040877970705</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5977,13 +5977,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5998,28 +5998,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8632439327646</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1357418247865</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>736.1461909267691</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.8632439327646</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,28 +6220,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,13 +6469,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,13 +6487,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,28 +7113,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,13 +7587,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504496</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>62.81120698386178</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>5.088916456060332</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>161.3677477496533</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.3145358280303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>64.30500338171925</v>
+        <v>42.08221638637286</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338503</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>91.26539274301204</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="10">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803342</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.409173052</v>
+        <v>-181626.4091730515</v>
       </c>
       <c r="C6" t="n">
         <v>408341.4700414926</v>
@@ -26530,40 +26530,40 @@
         <v>408341.4700414928</v>
       </c>
       <c r="E6" t="n">
-        <v>-14650.0656918709</v>
+        <v>-13772.93355812167</v>
       </c>
       <c r="F6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187749</v>
       </c>
       <c r="G6" t="n">
-        <v>510509.9707850249</v>
+        <v>511387.1029187744</v>
       </c>
       <c r="H6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="I6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>334086.7515924321</v>
+        <v>334963.8837261814</v>
       </c>
       <c r="K6" t="n">
-        <v>510509.9707850256</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="L6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="M6" t="n">
-        <v>375708.955551188</v>
+        <v>376586.0876849375</v>
       </c>
       <c r="N6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="O6" t="n">
-        <v>510509.9707850255</v>
+        <v>511387.1029187748</v>
       </c>
       <c r="P6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187748</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>81.8422566807161</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>81.84225668071605</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>138.7994718469072</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>54.38360035493383</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>388.0106513663366</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>42.48905394114898</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349766</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
